--- a/Documentação/Gráficos Burndown/7ª Sprint/Gráfico burndown 7.xlsx
+++ b/Documentação/Gráficos Burndown/7ª Sprint/Gráfico burndown 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cerberus\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D44459-D12A-4799-BB50-9AD9DCFE1D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7343F083-F18A-4844-9938-828D0A9CB052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" activeTab="1" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6150" firstSheet="1" activeTab="1" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <t>Itens de Sprint Backlog</t>
   </si>
   <si>
-    <t>Horas supostas</t>
+    <t>Horas</t>
   </si>
   <si>
     <t>Balanço</t>
@@ -592,32 +592,11 @@
     <xf numFmtId="1" fontId="4" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -633,6 +612,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,7 +829,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Horas supostas</c:v>
+                  <c:v>Horas</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -993,7 +993,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Horas supostas</c:v>
+                  <c:v>Horas</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1482,7 +1482,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Horas supostas</c:v>
+                  <c:v>Horas</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1597,7 +1597,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Horas supostas</c:v>
+                  <c:v>Horas</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3023,15 +3023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:colOff>1571625</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:rowOff>1181100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3376,8 +3376,8 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
@@ -3391,123 +3391,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="25"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="25"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="97.5" customHeight="1">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="32"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="26">
         <v>4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>5</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="26">
         <v>6</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="26">
         <v>7</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="29" t="s">
         <v>7</v>
       </c>
     </row>
